--- a/doc/FIS-PR-07-Plantilla_Sprint_Backlog.xlsx
+++ b/doc/FIS-PR-07-Plantilla_Sprint_Backlog.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">'Sprint Backlog'!$A$1:$O$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Sprint Backlog'!$A$1:$O$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Sprint Backlog'!$A$1:$O$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Sprint Backlog'!$A$1:$O$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t xml:space="preserve">Pila del Sprint (Sprint Backlog)</t>
   </si>
@@ -161,7 +162,10 @@
     <t xml:space="preserve">Tarea 8 – Realizar el código encargado de añadir más de una especialidad en el formulario de alta de personal</t>
   </si>
   <si>
-    <t xml:space="preserve">Tarea 8 – Realizar el código en el cliente encargado de recibir y notificar al usuario del éxito o error en la petición al servidor</t>
+    <t xml:space="preserve">T01.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarea 9 – Realizar el código en el cliente encargado de recibir y notificar al usuario del éxito o error en la petición al servidor</t>
   </si>
   <si>
     <t xml:space="preserve">HU02</t>
@@ -583,25 +587,25 @@
   </sheetPr>
   <dimension ref="B1:O65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="1.62244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="1.48469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,10 +933,10 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="9" t="n">
         <v>42804</v>
@@ -958,19 +962,19 @@
     </row>
     <row r="14" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="9" t="n">
         <v>42804</v>
@@ -989,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>22</v>
@@ -1001,10 +1005,10 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>42804</v>
@@ -1023,7 +1027,7 @@
         <v>28</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>22</v>
@@ -1035,10 +1039,10 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>42804</v>
@@ -1069,10 +1073,10 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>42804</v>
@@ -1101,13 +1105,13 @@
     <row r="18" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="9" t="n">
@@ -1125,13 +1129,13 @@
     <row r="19" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9" t="n">
@@ -1149,13 +1153,13 @@
     <row r="20" s="13" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="9" t="n">
@@ -1173,13 +1177,13 @@
     <row r="21" s="13" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="9" t="n">
@@ -1197,13 +1201,13 @@
     <row r="22" s="13" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="9" t="n">
@@ -1221,13 +1225,13 @@
     <row r="23" s="13" customFormat="true" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="9" t="n">
